--- a/Arbeidsledighet_data.xlsx
+++ b/Arbeidsledighet_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannespedersen/Desktop/Skole/SOK-1004/Prosjektoppgave/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF8FADD-8864-1740-969A-A9E55AA841A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E404C4D-99BA-0849-8C73-CC71171BCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{225C103E-B60C-704B-9234-5693DE5B68AE}"/>
   </bookViews>
@@ -36,23 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <r>
-      <t>Næring</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Personer 15 år og over i alt</t>
   </si>
@@ -179,12 +163,18 @@
   <si>
     <t> 399</t>
   </si>
+  <si>
+    <t>verdi</t>
+  </si>
+  <si>
+    <t>Næring</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,14 +185,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -292,11 +274,11 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -616,7 +598,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,10 +609,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1920</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -656,10 +638,10 @@
     </row>
     <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -669,10 +651,10 @@
     </row>
     <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -682,10 +664,10 @@
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -695,10 +677,10 @@
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -708,10 +690,10 @@
     </row>
     <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -721,10 +703,10 @@
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -734,10 +716,10 @@
     </row>
     <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -747,10 +729,10 @@
     </row>
     <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -769,10 +751,10 @@
     </row>
     <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -782,10 +764,10 @@
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -795,10 +777,10 @@
     </row>
     <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -808,10 +790,10 @@
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -821,10 +803,10 @@
     </row>
     <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -834,10 +816,10 @@
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -847,10 +829,10 @@
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -860,10 +842,10 @@
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -873,10 +855,10 @@
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -886,10 +868,10 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -899,10 +881,10 @@
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
